--- a/biology/Botanique/Cephalotaxus_fortunei/Cephalotaxus_fortunei.xlsx
+++ b/biology/Botanique/Cephalotaxus_fortunei/Cephalotaxus_fortunei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céphalotaxe de Fortune
-Cephalotaxus fortunei, le Céphalotaxe de Fortune,  est une espèce de plantes de la famille des Cephalotaxaceae[1].
+Cephalotaxus fortunei, le Céphalotaxe de Fortune,  est une espèce de plantes de la famille des Cephalotaxaceae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chine et Nord du Myanmar à des altitudes comprises entre 200 et 3 700 mètres.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (7 août 2022)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (7 août 2022) (Attention liste brute contenant possiblement des synonymes) :
 Cephalotaxus fortunei subsp. alpina (H.L. Li) Silba
 Cephalotaxus fortunei var. alpina H.L. Li
 Cephalotaxus fortunei var. concolor Franch.
